--- a/content-planer.xlsx
+++ b/content-planer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadhossein/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadhossein/Documents/django/en-hub/wp_content_agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186EE17-ED9E-F642-B3A6-B2E00EFB74B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA08F20-3550-2F4C-B13E-383C5E9F377C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{43438C13-200C-CD40-BEE5-270ABB756FC8}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>short explaination</t>
-  </si>
-  <si>
     <t>goal</t>
   </si>
   <si>
@@ -603,6 +600,9 @@
   </si>
   <si>
     <t>برنامه روزانه مکالمه کوتاه</t>
+  </si>
+  <si>
+    <t>short explanation</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1056,16 +1056,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>48</v>
@@ -1413,16 +1413,16 @@
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E22" s="5">
         <v>45993</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -1439,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="5">
         <v>45994</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>11</v>
@@ -1456,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="5">
         <v>45995</v>
@@ -1464,16 +1464,16 @@
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="E25" s="5">
         <v>45996</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>14</v>
@@ -1490,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="5">
         <v>45997</v>
@@ -1498,16 +1498,16 @@
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="E27" s="5">
         <v>45998</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>11</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="5">
         <v>45999</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>19</v>
@@ -1541,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="5">
         <v>46000</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>5</v>
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="5">
         <v>46001</v>
@@ -1566,16 +1566,16 @@
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E31" s="5">
         <v>46002</v>
@@ -1583,16 +1583,16 @@
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="E32" s="5">
         <v>46003</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>14</v>
@@ -1609,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="5">
         <v>46004</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>11</v>
@@ -1626,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="5">
         <v>46005</v>
@@ -1634,16 +1634,16 @@
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E35" s="5">
         <v>46006</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>5</v>
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" s="5">
         <v>46007</v>
@@ -1668,16 +1668,16 @@
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="E37" s="5">
         <v>46008</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>11</v>
@@ -1694,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="5">
         <v>46009</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>14</v>
@@ -1711,7 +1711,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="5">
         <v>46010</v>
@@ -1719,16 +1719,16 @@
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="E40" s="5">
         <v>46011</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>11</v>
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="5">
         <v>46012</v>
@@ -1753,16 +1753,16 @@
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="E42" s="5">
         <v>46013</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>19</v>
@@ -1779,7 +1779,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="5">
         <v>46014</v>
@@ -1787,16 +1787,16 @@
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="E44" s="5">
         <v>46015</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>11</v>
@@ -1813,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E45" s="5">
         <v>46016</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>5</v>
@@ -1830,7 +1830,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46" s="5">
         <v>46017</v>
@@ -1838,16 +1838,16 @@
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="E47" s="5">
         <v>46018</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>14</v>
@@ -1864,7 +1864,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E48" s="5">
         <v>46019</v>
@@ -1872,16 +1872,16 @@
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="E49" s="5">
         <v>46020</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>5</v>
@@ -1898,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E50" s="5">
         <v>46021</v>
@@ -1906,16 +1906,16 @@
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="E51" s="5">
         <v>46022</v>
@@ -1923,16 +1923,16 @@
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E52" s="5">
         <v>46023</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>5</v>
@@ -1949,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="5">
         <v>46024</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>11</v>
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E54" s="5">
         <v>46025</v>
@@ -1974,16 +1974,16 @@
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="E55" s="5">
         <v>46026</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>14</v>
@@ -2000,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" s="5">
         <v>46027</v>
@@ -2008,16 +2008,16 @@
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="E57" s="5">
         <v>46028</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>11</v>
@@ -2034,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E58" s="5">
         <v>46029</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>19</v>
@@ -2051,7 +2051,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E59" s="5">
         <v>46030</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>5</v>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E60" s="5">
         <v>46031</v>
@@ -2076,16 +2076,16 @@
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="E61" s="5">
         <v>46032</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>1</v>
@@ -2102,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E62" s="5">
         <v>46033</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>14</v>
@@ -2119,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="5">
         <v>46034</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>11</v>
@@ -2136,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E64" s="5">
         <v>46035</v>
@@ -2144,16 +2144,16 @@
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E65" s="5">
         <v>46036</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>5</v>
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66" s="5">
         <v>46037</v>
@@ -2178,16 +2178,16 @@
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="E67" s="5">
         <v>46038</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>11</v>
@@ -2204,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E68" s="5">
         <v>46039</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>14</v>
@@ -2221,7 +2221,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E69" s="5">
         <v>46040</v>
@@ -2229,16 +2229,16 @@
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="E70" s="5">
         <v>46041</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>11</v>
@@ -2255,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E71" s="5">
         <v>46042</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E72" s="5">
         <v>46043</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>19</v>
@@ -2289,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E73" s="5">
         <v>46044</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="E74" s="5">
         <v>46045</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>11</v>
@@ -2323,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E75" s="5">
         <v>46046</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>5</v>
@@ -2340,7 +2340,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E76" s="5">
         <v>46047</v>
@@ -2348,16 +2348,16 @@
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="E77" s="5">
         <v>46048</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>14</v>
@@ -2374,7 +2374,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" s="5">
         <v>46049</v>
@@ -2382,16 +2382,16 @@
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="E79" s="5">
         <v>46050</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>5</v>
@@ -2408,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E80" s="5">
         <v>46051</v>
@@ -2416,16 +2416,16 @@
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="E81" s="5">
         <v>46052</v>
@@ -2433,16 +2433,16 @@
     </row>
     <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="E82" s="5">
         <v>46053</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>5</v>
@@ -2459,7 +2459,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E83" s="5">
         <v>46054</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>11</v>
@@ -2476,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E84" s="5">
         <v>46055</v>
@@ -2484,16 +2484,16 @@
     </row>
     <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="E85" s="5">
         <v>46056</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>14</v>
@@ -2510,7 +2510,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E86" s="5">
         <v>46057</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E87" s="5">
         <v>46058</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>11</v>
@@ -2544,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E88" s="5">
         <v>46059</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>19</v>
@@ -2561,7 +2561,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E89" s="5">
         <v>46060</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>5</v>
@@ -2578,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E90" s="5">
         <v>46061</v>
@@ -2586,16 +2586,16 @@
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="E91" s="5">
         <v>46062</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>1</v>
@@ -2612,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E92" s="5">
         <v>46063</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>5</v>
@@ -2629,7 +2629,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E93" s="5">
         <v>46064</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>11</v>
@@ -2646,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E94" s="5">
         <v>46065</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E95" s="5">
         <v>46066</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>5</v>
@@ -2680,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E96" s="5">
         <v>46067</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>1</v>
@@ -2697,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E97" s="5">
         <v>46068</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>11</v>
@@ -2714,7 +2714,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E98" s="5">
         <v>46069</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>14</v>
@@ -2731,7 +2731,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E99" s="5">
         <v>46070</v>
@@ -2739,16 +2739,16 @@
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="E100" s="5">
         <v>46071</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>11</v>
@@ -2765,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E101" s="5">
         <v>46072</v>
